--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -554,7 +554,7 @@
         <v>null</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="E4" t="str">
         <v>null</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B7" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -701,22 +701,22 @@
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>2,2,3-trifluoro-3-[1,1,2,2,3,3-hexafluoro-3-(trifluoromethoxy)propoxy]propanoic acid</v>
+        <v>beryllium</v>
       </c>
       <c r="G7" t="str">
-        <v>919005-14-4</v>
+        <v>7440-41-7</v>
       </c>
       <c r="H7" t="str">
-        <v>700-835-7</v>
+        <v>231-150-7</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
       <c r="J7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
       <c r="K7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
       <c r="L7" t="str">
         <v>null</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B8" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -748,22 +748,22 @@
         <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>beryllium</v>
+        <v>Pyrene</v>
       </c>
       <c r="G8" t="str">
-        <v>7440-41-7</v>
+        <v>129-00-0</v>
       </c>
       <c r="H8" t="str">
-        <v>231-150-7</v>
+        <v>204-927-3</v>
       </c>
       <c r="I8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L8" t="str">
         <v>null</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
       </c>
       <c r="B9" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -795,22 +795,22 @@
         <v>null</v>
       </c>
       <c r="F9" t="str">
-        <v>Pyrene</v>
+        <v>1-chloro-2-nitrobenzene</v>
       </c>
       <c r="G9" t="str">
-        <v>129-00-0</v>
+        <v>88-73-3</v>
       </c>
       <c r="H9" t="str">
-        <v>204-927-3</v>
+        <v>201-854-9</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L9" t="str">
         <v>null</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BLEROMXYYSQFLX-UHFFFAOYSA-N</v>
       </c>
       <c r="B10" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -842,22 +842,22 @@
         <v>null</v>
       </c>
       <c r="F10" t="str">
-        <v>1-chloro-2-nitrobenzene</v>
+        <v>1,2-Benzenedicarboxylic acid, dihexyl ester, branched and linear</v>
       </c>
       <c r="G10" t="str">
-        <v>88-73-3</v>
+        <v>71850-09-4</v>
       </c>
       <c r="H10" t="str">
-        <v>201-854-9</v>
+        <v>276-090-2</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L10" t="str">
         <v>null</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BLEROMXYYSQFLX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B11" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -889,22 +889,22 @@
         <v>null</v>
       </c>
       <c r="F11" t="str">
-        <v>1,2-Benzenedicarboxylic acid, dihexyl ester, branched and linear</v>
+        <v>1-chloro-2,3-epoxypropane|epichlorhydrin</v>
       </c>
       <c r="G11" t="str">
-        <v>71850-09-4</v>
+        <v>106-89-8</v>
       </c>
       <c r="H11" t="str">
-        <v>276-090-2</v>
+        <v>203-439-8</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L11" t="str">
         <v>null</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B12" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -936,13 +936,13 @@
         <v>null</v>
       </c>
       <c r="F12" t="str">
-        <v>1-chloro-2,3-epoxypropane|epichlorhydrin</v>
+        <v>Chloroethylene</v>
       </c>
       <c r="G12" t="str">
-        <v>106-89-8</v>
+        <v>75-01-4</v>
       </c>
       <c r="H12" t="str">
-        <v>203-439-8</v>
+        <v>200-831-0</v>
       </c>
       <c r="I12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
       </c>
       <c r="B13" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -983,22 +983,22 @@
         <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>Chloroethylene</v>
+        <v>tert-butyl methyl ether</v>
       </c>
       <c r="G13" t="str">
-        <v>75-01-4</v>
+        <v>1634-04-4</v>
       </c>
       <c r="H13" t="str">
-        <v>200-831-0</v>
+        <v>216-653-1</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L13" t="str">
         <v>null</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
       </c>
       <c r="B14" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1030,22 +1030,22 @@
         <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>tert-butyl methyl ether</v>
+        <v>1,2,3-trichloropropane</v>
       </c>
       <c r="G14" t="str">
-        <v>1634-04-4</v>
+        <v>96-18-4</v>
       </c>
       <c r="H14" t="str">
-        <v>216-653-1</v>
+        <v>202-486-1</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L14" t="str">
         <v>null</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
       </c>
       <c r="B15" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1077,22 +1077,22 @@
         <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>1,2,3-trichloropropane</v>
+        <v>2,3,3,3-tetrafluoro-2-(heptafluoropropoxy)propionic acid</v>
       </c>
       <c r="G15" t="str">
-        <v>96-18-4</v>
+        <v>13252-13-6</v>
       </c>
       <c r="H15" t="str">
-        <v>202-486-1</v>
+        <v>236-236-8</v>
       </c>
       <c r="I15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L15" t="str">
         <v>null</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B16" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1124,22 +1124,22 @@
         <v>null</v>
       </c>
       <c r="F16" t="str">
-        <v>2,3,3,3-tetrafluoro-2-(heptafluoropropoxy)propionic acid</v>
+        <v>Acenaphthene</v>
       </c>
       <c r="G16" t="str">
-        <v>13252-13-6</v>
+        <v>83-32-9</v>
       </c>
       <c r="H16" t="str">
-        <v>236-236-8</v>
+        <v>201-469-6</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L16" t="str">
         <v>null</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
       </c>
       <c r="B17" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1171,22 +1171,22 @@
         <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>Acenaphthene</v>
+        <v>Tricosafluorododecanoic acid</v>
       </c>
       <c r="G17" t="str">
-        <v>83-32-9</v>
+        <v>307-55-1</v>
       </c>
       <c r="H17" t="str">
-        <v>201-469-6</v>
+        <v>206-203-2</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L17" t="str">
         <v>null</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
       </c>
       <c r="B18" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1218,22 +1218,22 @@
         <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>Tricosafluorododecanoic acid</v>
+        <v>4-chloro-&lt;i&gt;o&lt;/i&gt;-toluidine</v>
       </c>
       <c r="G18" t="str">
-        <v>307-55-1</v>
+        <v>95-69-2</v>
       </c>
       <c r="H18" t="str">
-        <v>206-203-2</v>
+        <v>202-441-6</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L18" t="str">
         <v>null</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
       </c>
       <c r="B19" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1265,22 +1265,22 @@
         <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>4-chloro-&lt;i&gt;o&lt;/i&gt;-toluidine</v>
+        <v>Tetrachloroethylene</v>
       </c>
       <c r="G19" t="str">
-        <v>95-69-2</v>
+        <v>127-18-4</v>
       </c>
       <c r="H19" t="str">
-        <v>202-441-6</v>
+        <v>204-825-9</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L19" t="str">
         <v>null</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B20" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1312,13 +1312,13 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>Tetrachloroethylene</v>
+        <v>1-chloro-4-nitrobenzene</v>
       </c>
       <c r="G20" t="str">
-        <v>127-18-4</v>
+        <v>100-00-5</v>
       </c>
       <c r="H20" t="str">
-        <v>204-825-9</v>
+        <v>202-809-6</v>
       </c>
       <c r="I20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
       </c>
       <c r="B21" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1359,13 +1359,13 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>1-chloro-4-nitrobenzene</v>
+        <v>Aclonifen</v>
       </c>
       <c r="G21" t="str">
-        <v>100-00-5</v>
+        <v>74070-46-5</v>
       </c>
       <c r="H21" t="str">
-        <v>202-809-6</v>
+        <v>277-704-1</v>
       </c>
       <c r="I21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
       </c>
       <c r="B22" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1406,22 +1406,22 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>Aclonifen</v>
+        <v>1,3-dichloro-2-propanol</v>
       </c>
       <c r="G22" t="str">
-        <v>74070-46-5</v>
+        <v>96-23-1</v>
       </c>
       <c r="H22" t="str">
-        <v>277-704-1</v>
+        <v>202-491-9</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L22" t="str">
         <v>null</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
       </c>
       <c r="B23" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1453,22 +1453,22 @@
         <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>1,3-dichloro-2-propanol</v>
+        <v>2-methylpropan-2-ol</v>
       </c>
       <c r="G23" t="str">
-        <v>96-23-1</v>
+        <v>75-65-0</v>
       </c>
       <c r="H23" t="str">
-        <v>202-491-9</v>
+        <v>200-889-7</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L23" t="str">
         <v>null</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
       </c>
       <c r="B24" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1500,22 +1500,22 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>2-methylpropan-2-ol</v>
+        <v>DBP|dibutyl phthalate</v>
       </c>
       <c r="G24" t="str">
-        <v>75-65-0</v>
+        <v>84-74-2</v>
       </c>
       <c r="H24" t="str">
-        <v>200-889-7</v>
+        <v>201-557-4</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L24" t="str">
         <v>null</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
       </c>
       <c r="B25" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1547,22 +1547,22 @@
         <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>DBP|dibutyl phthalate</v>
+        <v>benz[&lt;i&gt;a&lt;/i&gt;]anthracene</v>
       </c>
       <c r="G25" t="str">
-        <v>84-74-2</v>
+        <v>56-55-3</v>
       </c>
       <c r="H25" t="str">
-        <v>201-557-4</v>
+        <v>200-280-6</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L25" t="str">
         <v>null</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
       </c>
       <c r="B26" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1594,22 +1594,22 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>benz[&lt;i&gt;a&lt;/i&gt;]anthracene</v>
+        <v>1,2,3,4,6,7,8,9-Octachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G26" t="str">
-        <v>56-55-3</v>
+        <v>3268-87-9</v>
       </c>
       <c r="H26" t="str">
-        <v>200-280-6</v>
+        <v>694-813-3</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L26" t="str">
         <v>null</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
       </c>
       <c r="B27" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1641,13 +1641,13 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>1,2,3,4,6,7,8,9-Octachlorodibenzo-p-dioxin</v>
+        <v>Chlorfenvinphos</v>
       </c>
       <c r="G27" t="str">
-        <v>3268-87-9</v>
+        <v>470-90-6</v>
       </c>
       <c r="H27" t="str">
-        <v>694-813-3</v>
+        <v>207-432-0</v>
       </c>
       <c r="I27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
       </c>
       <c r="B28" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1688,13 +1688,13 @@
         <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>Chlorfenvinphos</v>
+        <v>1,2,3,7,8-Pentachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G28" t="str">
-        <v>470-90-6</v>
+        <v>40321-76-4</v>
       </c>
       <c r="H28" t="str">
-        <v>207-432-0</v>
+        <v>694-814-9</v>
       </c>
       <c r="I28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
       </c>
       <c r="B29" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1735,22 +1735,22 @@
         <v>null</v>
       </c>
       <c r="F29" t="str">
-        <v>1,2,3,7,8-Pentachlorodibenzo-p-dioxin</v>
+        <v>1,2-epoxypropane|methyloxirane|propylene oxide</v>
       </c>
       <c r="G29" t="str">
-        <v>40321-76-4</v>
+        <v>75-56-9</v>
       </c>
       <c r="H29" t="str">
-        <v>694-814-9</v>
+        <v>200-879-2</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L29" t="str">
         <v>null</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B30" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1782,22 +1782,22 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
-        <v>1,2-epoxypropane|methyloxirane|propylene oxide</v>
+        <v>cobalt</v>
       </c>
       <c r="G30" t="str">
-        <v>75-56-9</v>
+        <v>7440-48-4</v>
       </c>
       <c r="H30" t="str">
-        <v>200-879-2</v>
+        <v>231-158-0</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L30" t="str">
         <v>null</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
       </c>
       <c r="B31" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1829,22 +1829,22 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
-        <v>cobalt</v>
+        <v>Fluoranthene</v>
       </c>
       <c r="G31" t="str">
-        <v>7440-48-4</v>
+        <v>206-44-0</v>
       </c>
       <c r="H31" t="str">
-        <v>231-158-0</v>
+        <v>205-912-4</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L31" t="str">
         <v>null</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
       </c>
       <c r="B32" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1876,13 +1876,13 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
-        <v>Fluoranthene</v>
+        <v>Benzo(g,h,i)perylene</v>
       </c>
       <c r="G32" t="str">
-        <v>206-44-0</v>
+        <v>191-24-2</v>
       </c>
       <c r="H32" t="str">
-        <v>205-912-4</v>
+        <v>205-883-8</v>
       </c>
       <c r="I32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
       </c>
       <c r="B33" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1923,22 +1923,22 @@
         <v>null</v>
       </c>
       <c r="F33" t="str">
-        <v>Benzo(g,h,i)perylene</v>
+        <v>Cybutryne</v>
       </c>
       <c r="G33" t="str">
-        <v>191-24-2</v>
+        <v>28159-98-0</v>
       </c>
       <c r="H33" t="str">
-        <v>205-883-8</v>
+        <v>248-872-3</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L33" t="str">
         <v>null</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
       </c>
       <c r="B34" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1970,13 +1970,13 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
-        <v>Cybutryne</v>
+        <v>Chloroform</v>
       </c>
       <c r="G34" t="str">
-        <v>28159-98-0</v>
+        <v>67-66-3</v>
       </c>
       <c r="H34" t="str">
-        <v>248-872-3</v>
+        <v>200-663-8</v>
       </c>
       <c r="I34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
       </c>
       <c r="B35" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2017,22 +2017,22 @@
         <v>null</v>
       </c>
       <c r="F35" t="str">
-        <v>Chloroform</v>
+        <v>Benzidine</v>
       </c>
       <c r="G35" t="str">
-        <v>67-66-3</v>
+        <v>92-87-5</v>
       </c>
       <c r="H35" t="str">
-        <v>200-663-8</v>
+        <v>202-199-1</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L35" t="str">
         <v>null</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
       </c>
       <c r="B36" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2064,22 +2064,22 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
-        <v>Benzidine</v>
+        <v>2,4-dichlorophenol</v>
       </c>
       <c r="G36" t="str">
-        <v>92-87-5</v>
+        <v>120-83-2</v>
       </c>
       <c r="H36" t="str">
-        <v>202-199-1</v>
+        <v>204-429-6</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L36" t="str">
         <v>null</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
       </c>
       <c r="B37" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2111,13 +2111,13 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>2,4-dichlorophenol</v>
+        <v>2,3,7,8-Tetrachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G37" t="str">
-        <v>120-83-2</v>
+        <v>1746-01-6</v>
       </c>
       <c r="H37" t="str">
-        <v>204-429-6</v>
+        <v>217-122-7</v>
       </c>
       <c r="I37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
       </c>
       <c r="B38" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D38" t="str">
         <v>null</v>
@@ -2158,13 +2158,13 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>2,3,7,8-Tetrachlorodibenzo-p-dioxin</v>
+        <v>Chloroethane</v>
       </c>
       <c r="G38" t="str">
-        <v>1746-01-6</v>
+        <v>75-00-3</v>
       </c>
       <c r="H38" t="str">
-        <v>217-122-7</v>
+        <v>200-830-5</v>
       </c>
       <c r="I38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B39" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2205,22 +2205,22 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>Chloroethane</v>
+        <v>3,3'-dichlorobenzidine|3,3'-dichlorobiphenyl-4,4'-ylenediamine</v>
       </c>
       <c r="G39" t="str">
-        <v>75-00-3</v>
+        <v>91-94-1</v>
       </c>
       <c r="H39" t="str">
-        <v>200-830-5</v>
+        <v>202-109-0</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L39" t="str">
         <v>null</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
       </c>
       <c r="B40" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2252,22 +2252,22 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
-        <v>3,3'-dichlorobenzidine|3,3'-dichlorobiphenyl-4,4'-ylenediamine</v>
+        <v>2,2'-dichloro-4,4'-methylenedianiline</v>
       </c>
       <c r="G40" t="str">
-        <v>91-94-1</v>
+        <v>101-14-4</v>
       </c>
       <c r="H40" t="str">
-        <v>202-109-0</v>
+        <v>202-918-9</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L40" t="str">
         <v>null</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
       </c>
       <c r="B41" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2299,22 +2299,22 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>2,2'-dichloro-4,4'-methylenedianiline</v>
+        <v>4,4'-isopropylidenediphenol; Bisphenol A</v>
       </c>
       <c r="G41" t="str">
-        <v>101-14-4</v>
+        <v>80-05-7</v>
       </c>
       <c r="H41" t="str">
-        <v>202-918-9</v>
+        <v>201-245-8</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L41" t="str">
         <v>null</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
       </c>
       <c r="B42" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2346,22 +2346,22 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>4,4'-isopropylidenediphenol; Bisphenol A</v>
+        <v>Dipentyl phthalate (DPP)</v>
       </c>
       <c r="G42" t="str">
-        <v>80-05-7</v>
+        <v>131-18-0</v>
       </c>
       <c r="H42" t="str">
-        <v>201-245-8</v>
+        <v>205-017-9</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L42" t="str">
         <v>null</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B43" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2393,22 +2393,22 @@
         <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>Dipentyl phthalate (DPP)</v>
+        <v>Benzyl butyl phthalate (BBP)</v>
       </c>
       <c r="G43" t="str">
-        <v>131-18-0</v>
+        <v>85-68-7</v>
       </c>
       <c r="H43" t="str">
-        <v>205-017-9</v>
+        <v>201-622-7</v>
       </c>
       <c r="I43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L43" t="str">
         <v>null</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
       </c>
       <c r="B44" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2440,22 +2440,22 @@
         <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>Benzyl butyl phthalate (BBP)</v>
+        <v>Terbutryn</v>
       </c>
       <c r="G44" t="str">
-        <v>85-68-7</v>
+        <v>886-50-0</v>
       </c>
       <c r="H44" t="str">
-        <v>201-622-7</v>
+        <v>212-950-5</v>
       </c>
       <c r="I44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L44" t="str">
         <v>null</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B45" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2487,22 +2487,22 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>Terbutryn</v>
+        <v>Diisopentyl phthalate</v>
       </c>
       <c r="G45" t="str">
-        <v>886-50-0</v>
+        <v>605-50-5</v>
       </c>
       <c r="H45" t="str">
-        <v>212-950-5</v>
+        <v>210-088-4</v>
       </c>
       <c r="I45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L45" t="str">
         <v>null</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
       </c>
       <c r="B46" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2534,22 +2534,22 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
-        <v>Diisopentyl phthalate</v>
+        <v>2-naphthylamine</v>
       </c>
       <c r="G46" t="str">
-        <v>605-50-5</v>
+        <v>91-59-8</v>
       </c>
       <c r="H46" t="str">
-        <v>210-088-4</v>
+        <v>202-080-4</v>
       </c>
       <c r="I46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L46" t="str">
         <v>null</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
       </c>
       <c r="B47" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2581,22 +2581,22 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
-        <v>2-naphthylamine</v>
+        <v>1,2,3,6,7,8-Hexachlorodibenzofuran</v>
       </c>
       <c r="G47" t="str">
-        <v>91-59-8</v>
+        <v>57117-44-9</v>
       </c>
       <c r="H47" t="str">
-        <v>202-080-4</v>
+        <v>694-837-4</v>
       </c>
       <c r="I47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L47" t="str">
         <v>null</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
       </c>
       <c r="B48" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2628,22 +2628,22 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
-        <v>1,2,3,6,7,8-Hexachlorodibenzofuran</v>
+        <v>1,1,2,2,3,3,4,4,4-nonafluorobutane-1-sulphonic acid</v>
       </c>
       <c r="G48" t="str">
-        <v>57117-44-9</v>
+        <v>375-73-5</v>
       </c>
       <c r="H48" t="str">
-        <v>694-837-4</v>
+        <v>206-793-1</v>
       </c>
       <c r="I48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L48" t="str">
         <v>null</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B49" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2675,22 +2675,22 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
-        <v>1,1,2,2,3,3,4,4,4-nonafluorobutane-1-sulphonic acid</v>
+        <v>Phenol, 4-nonyl-, branched</v>
       </c>
       <c r="G49" t="str">
-        <v>375-73-5</v>
+        <v>84852-15-3</v>
       </c>
       <c r="H49" t="str">
-        <v>206-793-1</v>
+        <v>284-325-5</v>
       </c>
       <c r="I49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L49" t="str">
         <v>null</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
       </c>
       <c r="B50" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2722,22 +2722,22 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>Phenol, 4-nonyl-, branched</v>
+        <v>Perfluoroheptanoic acid; tridecafluoroheptanoic acid</v>
       </c>
       <c r="G50" t="str">
-        <v>84852-15-3</v>
+        <v>375-85-9</v>
       </c>
       <c r="H50" t="str">
-        <v>284-325-5</v>
+        <v>206-798-9</v>
       </c>
       <c r="I50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L50" t="str">
         <v>null</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
       </c>
       <c r="B51" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2769,22 +2769,22 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>Perfluoroheptanoic acid; tridecafluoroheptanoic acid</v>
+        <v>Cypermethrin;zeta-Cypermethrin</v>
       </c>
       <c r="G51" t="str">
-        <v>375-85-9</v>
+        <v>52315-07-8</v>
       </c>
       <c r="H51" t="str">
-        <v>206-798-9</v>
+        <v>257-842-9</v>
       </c>
       <c r="I51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L51" t="str">
         <v>null</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B52" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2816,22 +2816,22 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>Cypermethrin;zeta-Cypermethrin</v>
+        <v>1,3-butadiene|buta-1,3-diene</v>
       </c>
       <c r="G52" t="str">
-        <v>52315-07-8</v>
+        <v>106-99-0</v>
       </c>
       <c r="H52" t="str">
-        <v>257-842-9</v>
+        <v>203-450-8</v>
       </c>
       <c r="I52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L52" t="str">
         <v>null</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
       </c>
       <c r="B53" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2863,13 +2863,13 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
-        <v>1,3-butadiene|buta-1,3-diene</v>
+        <v>benzyl chloride|α-chlorotoluene</v>
       </c>
       <c r="G53" t="str">
-        <v>106-99-0</v>
+        <v>100-44-7</v>
       </c>
       <c r="H53" t="str">
-        <v>203-450-8</v>
+        <v>202-853-6</v>
       </c>
       <c r="I53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B54" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2910,22 +2910,22 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>benzyl chloride|α-chlorotoluene</v>
+        <v>Dihexyl phthalate</v>
       </c>
       <c r="G54" t="str">
-        <v>100-44-7</v>
+        <v>84-75-3</v>
       </c>
       <c r="H54" t="str">
-        <v>202-853-6</v>
+        <v>201-559-5</v>
       </c>
       <c r="I54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L54" t="str">
         <v>null</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
       </c>
       <c r="B55" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2957,22 +2957,22 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>Dihexyl phthalate</v>
+        <v>trans-dichloroethylene</v>
       </c>
       <c r="G55" t="str">
-        <v>84-75-3</v>
+        <v>156-60-5</v>
       </c>
       <c r="H55" t="str">
-        <v>201-559-5</v>
+        <v>205-860-2</v>
       </c>
       <c r="I55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L55" t="str">
         <v>null</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
       </c>
       <c r="B56" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3004,22 +3004,22 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>trans-dichloroethylene</v>
+        <v>1,2-dichloropropane|propylene dichloride</v>
       </c>
       <c r="G56" t="str">
-        <v>156-60-5</v>
+        <v>78-87-5</v>
       </c>
       <c r="H56" t="str">
-        <v>205-860-2</v>
+        <v>201-152-2</v>
       </c>
       <c r="I56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L56" t="str">
         <v>null</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
       </c>
       <c r="B57" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3051,22 +3051,22 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
-        <v>1,2-dichloropropane|propylene dichloride</v>
+        <v>2,3,7,8-Tetrachlorodibenzofuran</v>
       </c>
       <c r="G57" t="str">
-        <v>78-87-5</v>
+        <v>51207-31-9</v>
       </c>
       <c r="H57" t="str">
-        <v>201-152-2</v>
+        <v>694-829-0</v>
       </c>
       <c r="I57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L57" t="str">
         <v>null</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B58" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3098,13 +3098,13 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>2,3,7,8-Tetrachlorodibenzofuran</v>
+        <v>1,2,3,7,8,9-Hexachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G58" t="str">
-        <v>51207-31-9</v>
+        <v>19408-74-3</v>
       </c>
       <c r="H58" t="str">
-        <v>694-829-0</v>
+        <v>694-810-7</v>
       </c>
       <c r="I58" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
       </c>
       <c r="B59" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3145,13 +3145,13 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>1,2,3,7,8,9-Hexachlorodibenzo-p-dioxin</v>
+        <v>1,1-Dichloroethene</v>
       </c>
       <c r="G59" t="str">
-        <v>19408-74-3</v>
+        <v>75-35-4</v>
       </c>
       <c r="H59" t="str">
-        <v>694-810-7</v>
+        <v>200-864-0</v>
       </c>
       <c r="I59" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B60" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3192,22 +3192,22 @@
         <v>null</v>
       </c>
       <c r="F60" t="str">
-        <v>1,1-Dichloroethene</v>
+        <v>Dibenzo[a,h]anthracene (DBAhA)</v>
       </c>
       <c r="G60" t="str">
-        <v>75-35-4</v>
+        <v>53-70-3</v>
       </c>
       <c r="H60" t="str">
-        <v>200-864-0</v>
+        <v>200-181-8</v>
       </c>
       <c r="I60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L60" t="str">
         <v>null</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
       </c>
       <c r="B61" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3239,22 +3239,22 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>Dibenzo[a,h]anthracene (DBAhA)</v>
+        <v>Pentacosafluorotridecanoic acid</v>
       </c>
       <c r="G61" t="str">
-        <v>53-70-3</v>
+        <v>72629-94-8</v>
       </c>
       <c r="H61" t="str">
-        <v>200-181-8</v>
+        <v>276-745-2</v>
       </c>
       <c r="I61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L61" t="str">
         <v>null</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
       </c>
       <c r="B62" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3286,22 +3286,22 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>Pentacosafluorotridecanoic acid</v>
+        <v>1,2,3,4,7,8-Hexachlorodibenzofuran</v>
       </c>
       <c r="G62" t="str">
-        <v>72629-94-8</v>
+        <v>70648-26-9</v>
       </c>
       <c r="H62" t="str">
-        <v>276-745-2</v>
+        <v>694-812-8</v>
       </c>
       <c r="I62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L62" t="str">
         <v>null</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
       </c>
       <c r="B63" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3333,22 +3333,22 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
-        <v>1,2,3,4,7,8-Hexachlorodibenzofuran</v>
+        <v>Diisobutyl phthalate</v>
       </c>
       <c r="G63" t="str">
-        <v>70648-26-9</v>
+        <v>84-69-5</v>
       </c>
       <c r="H63" t="str">
-        <v>694-812-8</v>
+        <v>201-553-2</v>
       </c>
       <c r="I63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L63" t="str">
         <v>null</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
       </c>
       <c r="B64" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3380,22 +3380,22 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>Diisobutyl phthalate</v>
+        <v>Di-n-octyl phthalate (DNOP)</v>
       </c>
       <c r="G64" t="str">
-        <v>84-69-5</v>
+        <v>117-84-0</v>
       </c>
       <c r="H64" t="str">
-        <v>201-553-2</v>
+        <v>204-214-7</v>
       </c>
       <c r="I64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L64" t="str">
         <v>null</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B65" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3427,13 +3427,13 @@
         <v>null</v>
       </c>
       <c r="F65" t="str">
-        <v>Di-n-octyl phthalate (DNOP)</v>
+        <v>Chlorobenzene</v>
       </c>
       <c r="G65" t="str">
-        <v>117-84-0</v>
+        <v>108-90-7</v>
       </c>
       <c r="H65" t="str">
-        <v>204-214-7</v>
+        <v>203-628-5</v>
       </c>
       <c r="I65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
       </c>
       <c r="B66" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3474,22 +3474,22 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>Chlorobenzene</v>
+        <v>Anthracene</v>
       </c>
       <c r="G66" t="str">
-        <v>108-90-7</v>
+        <v>120-12-7</v>
       </c>
       <c r="H66" t="str">
-        <v>203-628-5</v>
+        <v>204-371-1</v>
       </c>
       <c r="I66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L66" t="str">
         <v>null</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B67" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3521,22 +3521,22 @@
         <v>null</v>
       </c>
       <c r="F67" t="str">
-        <v>Anthracene</v>
+        <v>Atrazine</v>
       </c>
       <c r="G67" t="str">
-        <v>120-12-7</v>
+        <v>1912-24-9</v>
       </c>
       <c r="H67" t="str">
-        <v>204-371-1</v>
+        <v>217-617-8</v>
       </c>
       <c r="I67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L67" t="str">
         <v>null</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
       </c>
       <c r="B68" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3568,22 +3568,22 @@
         <v>null</v>
       </c>
       <c r="F68" t="str">
-        <v>Atrazine</v>
+        <v>acrylonitrile</v>
       </c>
       <c r="G68" t="str">
-        <v>1912-24-9</v>
+        <v>107-13-1</v>
       </c>
       <c r="H68" t="str">
-        <v>217-617-8</v>
+        <v>203-466-5</v>
       </c>
       <c r="I68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L68" t="str">
         <v>null</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
       </c>
       <c r="B69" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3615,13 +3615,13 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>acrylonitrile</v>
+        <v>aziridine|ethyleneimine</v>
       </c>
       <c r="G69" t="str">
-        <v>107-13-1</v>
+        <v>151-56-4</v>
       </c>
       <c r="H69" t="str">
-        <v>203-466-5</v>
+        <v>205-793-9</v>
       </c>
       <c r="I69" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B70" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3662,13 +3662,13 @@
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>aziridine|ethyleneimine</v>
+        <v>Hydrazine</v>
       </c>
       <c r="G70" t="str">
-        <v>151-56-4</v>
+        <v>302-01-2</v>
       </c>
       <c r="H70" t="str">
-        <v>205-793-9</v>
+        <v>206-114-9</v>
       </c>
       <c r="I70" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B71" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3709,22 +3709,22 @@
         <v>null</v>
       </c>
       <c r="F71" t="str">
-        <v>Hydrazine</v>
+        <v>1,4-Dichlorobenzene</v>
       </c>
       <c r="G71" t="str">
-        <v>302-01-2</v>
+        <v>106-46-7</v>
       </c>
       <c r="H71" t="str">
-        <v>206-114-9</v>
+        <v>203-400-5</v>
       </c>
       <c r="I71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L71" t="str">
         <v>null</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
       </c>
       <c r="B72" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3756,13 +3756,13 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>1,4-Dichlorobenzene</v>
+        <v>Simazine</v>
       </c>
       <c r="G72" t="str">
-        <v>106-46-7</v>
+        <v>122-34-9</v>
       </c>
       <c r="H72" t="str">
-        <v>203-400-5</v>
+        <v>204-535-2</v>
       </c>
       <c r="I72" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
       </c>
       <c r="B73" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3803,13 +3803,13 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>Simazine</v>
+        <v>Dichlorvos</v>
       </c>
       <c r="G73" t="str">
-        <v>122-34-9</v>
+        <v>62-73-7</v>
       </c>
       <c r="H73" t="str">
-        <v>204-535-2</v>
+        <v>200-547-7</v>
       </c>
       <c r="I73" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
       </c>
       <c r="B74" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3850,13 +3850,13 @@
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>Dichlorvos</v>
+        <v>2,3,4,7,8-Pentachlorodibenzofuran</v>
       </c>
       <c r="G74" t="str">
-        <v>62-73-7</v>
+        <v>57117-31-4</v>
       </c>
       <c r="H74" t="str">
-        <v>200-547-7</v>
+        <v>694-761-1</v>
       </c>
       <c r="I74" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
       </c>
       <c r="B75" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3897,22 +3897,22 @@
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>2,3,4,7,8-Pentachlorodibenzofuran</v>
+        <v>1,2-dibromoethane</v>
       </c>
       <c r="G75" t="str">
-        <v>57117-31-4</v>
+        <v>106-93-4</v>
       </c>
       <c r="H75" t="str">
-        <v>694-761-1</v>
+        <v>203-444-5</v>
       </c>
       <c r="I75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L75" t="str">
         <v>null</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
       </c>
       <c r="B76" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3944,22 +3944,22 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>1,2-dibromoethane</v>
+        <v>4-chloro-2-nitroaniline</v>
       </c>
       <c r="G76" t="str">
-        <v>106-93-4</v>
+        <v>89-63-4</v>
       </c>
       <c r="H76" t="str">
-        <v>203-444-5</v>
+        <v>201-925-4</v>
       </c>
       <c r="I76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L76" t="str">
         <v>null</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
       </c>
       <c r="B77" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3991,22 +3991,22 @@
         <v>null</v>
       </c>
       <c r="F77" t="str">
-        <v>4-chloro-2-nitroaniline</v>
+        <v>Nonadecafluorodecanoic acid</v>
       </c>
       <c r="G77" t="str">
-        <v>89-63-4</v>
+        <v>335-76-2</v>
       </c>
       <c r="H77" t="str">
-        <v>201-925-4</v>
+        <v>206-400-3</v>
       </c>
       <c r="I77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L77" t="str">
         <v>null</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
       </c>
       <c r="B78" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4038,22 +4038,22 @@
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>Nonadecafluorodecanoic acid</v>
+        <v>3-chloroaniline</v>
       </c>
       <c r="G78" t="str">
-        <v>335-76-2</v>
+        <v>108-42-9</v>
       </c>
       <c r="H78" t="str">
-        <v>206-400-3</v>
+        <v>203-581-0</v>
       </c>
       <c r="I78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L78" t="str">
         <v>null</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B79" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4085,13 +4085,13 @@
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>3-chloroaniline</v>
+        <v>Isoproturon</v>
       </c>
       <c r="G79" t="str">
-        <v>108-42-9</v>
+        <v>34123-59-6</v>
       </c>
       <c r="H79" t="str">
-        <v>203-581-0</v>
+        <v>251-835-4</v>
       </c>
       <c r="I79" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B80" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4132,13 +4132,13 @@
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>Isoproturon</v>
+        <v>Dichlorodifluoromethane</v>
       </c>
       <c r="G80" t="str">
-        <v>34123-59-6</v>
+        <v>75-71-8</v>
       </c>
       <c r="H80" t="str">
-        <v>251-835-4</v>
+        <v>200-893-9</v>
       </c>
       <c r="I80" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
       </c>
       <c r="B81" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4179,13 +4179,13 @@
         <v>null</v>
       </c>
       <c r="F81" t="str">
-        <v>Dichlorodifluoromethane</v>
+        <v>Undecafluorohexanoic acid</v>
       </c>
       <c r="G81" t="str">
-        <v>75-71-8</v>
+        <v>307-24-4</v>
       </c>
       <c r="H81" t="str">
-        <v>200-893-9</v>
+        <v>206-196-6</v>
       </c>
       <c r="I81" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B82" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4226,13 +4226,13 @@
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>Undecafluorohexanoic acid</v>
+        <v>1,2,3,7,8,9-Hexachlorodibenzofuran</v>
       </c>
       <c r="G82" t="str">
-        <v>307-24-4</v>
+        <v>72918-21-9</v>
       </c>
       <c r="H82" t="str">
-        <v>206-196-6</v>
+        <v>694-765-3</v>
       </c>
       <c r="I82" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
       </c>
       <c r="B83" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4273,13 +4273,13 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>1,2,3,7,8,9-Hexachlorodibenzofuran</v>
+        <v>1,1,2,2-Tetrachloroethane</v>
       </c>
       <c r="G83" t="str">
-        <v>72918-21-9</v>
+        <v>79-34-5</v>
       </c>
       <c r="H83" t="str">
-        <v>694-765-3</v>
+        <v>201-197-8</v>
       </c>
       <c r="I83" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
       </c>
       <c r="B84" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4320,22 +4320,22 @@
         <v>null</v>
       </c>
       <c r="F84" t="str">
-        <v>1,1,2,2-Tetrachloroethane</v>
+        <v>Mercury</v>
       </c>
       <c r="G84" t="str">
-        <v>79-34-5</v>
+        <v>7439-97-6</v>
       </c>
       <c r="H84" t="str">
-        <v>201-197-8</v>
+        <v>231-106-7</v>
       </c>
       <c r="I84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L84" t="str">
         <v>null</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B85" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4367,13 +4367,13 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>Mercury</v>
+        <v>4-chloroaniline</v>
       </c>
       <c r="G85" t="str">
-        <v>7439-97-6</v>
+        <v>106-47-8</v>
       </c>
       <c r="H85" t="str">
-        <v>231-106-7</v>
+        <v>203-401-0</v>
       </c>
       <c r="I85" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
       </c>
       <c r="B86" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4414,22 +4414,22 @@
         <v>null</v>
       </c>
       <c r="F86" t="str">
-        <v>4-chloroaniline</v>
+        <v>1,1,1,2-Tetrachloroethane</v>
       </c>
       <c r="G86" t="str">
-        <v>106-47-8</v>
+        <v>630-20-6</v>
       </c>
       <c r="H86" t="str">
-        <v>203-401-0</v>
+        <v>-</v>
       </c>
       <c r="I86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L86" t="str">
         <v>null</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
       </c>
       <c r="B87" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4461,22 +4461,22 @@
         <v>null</v>
       </c>
       <c r="F87" t="str">
-        <v>1,1,1,2-Tetrachloroethane</v>
+        <v>Perfluorohexane-1-sulphonic acid</v>
       </c>
       <c r="G87" t="str">
-        <v>630-20-6</v>
+        <v>355-46-4</v>
       </c>
       <c r="H87" t="str">
-        <v>-</v>
+        <v>206-587-1</v>
       </c>
       <c r="I87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L87" t="str">
         <v>null</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
       </c>
       <c r="B88" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4508,22 +4508,22 @@
         <v>null</v>
       </c>
       <c r="F88" t="str">
-        <v>Perfluorohexane-1-sulphonic acid</v>
+        <v>1,2-dichlorobenzene</v>
       </c>
       <c r="G88" t="str">
-        <v>355-46-4</v>
+        <v>95-50-1</v>
       </c>
       <c r="H88" t="str">
-        <v>206-587-1</v>
+        <v>202-425-9</v>
       </c>
       <c r="I88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L88" t="str">
         <v>null</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
       </c>
       <c r="B89" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4555,13 +4555,13 @@
         <v>null</v>
       </c>
       <c r="F89" t="str">
-        <v>1,2-dichlorobenzene</v>
+        <v>1,2,3,4,6,7,8,9-Octachlorodibenzofuran</v>
       </c>
       <c r="G89" t="str">
-        <v>95-50-1</v>
+        <v>39001-02-0</v>
       </c>
       <c r="H89" t="str">
-        <v>202-425-9</v>
+        <v>694-806-5</v>
       </c>
       <c r="I89" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
       </c>
       <c r="B90" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4602,22 +4602,22 @@
         <v>null</v>
       </c>
       <c r="F90" t="str">
-        <v>1,2,3,4,6,7,8,9-Octachlorodibenzofuran</v>
+        <v>1,2-Benzenedicarboxylic acid, di-C6-8-branched alkyl esters, C7-rich</v>
       </c>
       <c r="G90" t="str">
-        <v>39001-02-0</v>
+        <v>71888-89-6</v>
       </c>
       <c r="H90" t="str">
-        <v>694-806-5</v>
+        <v>276-158-1</v>
       </c>
       <c r="I90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L90" t="str">
         <v>null</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B91" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4649,13 +4649,13 @@
         <v>null</v>
       </c>
       <c r="F91" t="str">
-        <v>1,2-Benzenedicarboxylic acid, di-C6-8-branched alkyl esters, C7-rich</v>
+        <v>o-toluidine</v>
       </c>
       <c r="G91" t="str">
-        <v>71888-89-6</v>
+        <v>95-53-4</v>
       </c>
       <c r="H91" t="str">
-        <v>276-158-1</v>
+        <v>202-429-0</v>
       </c>
       <c r="I91" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
       </c>
       <c r="B92" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4696,22 +4696,22 @@
         <v>null</v>
       </c>
       <c r="F92" t="str">
-        <v>o-toluidine</v>
+        <v>Arsenic</v>
       </c>
       <c r="G92" t="str">
-        <v>95-53-4</v>
+        <v>7440-38-2</v>
       </c>
       <c r="H92" t="str">
-        <v>202-429-0</v>
+        <v>231-148-6</v>
       </c>
       <c r="I92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L92" t="str">
         <v>null</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B93" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4743,22 +4743,22 @@
         <v>null</v>
       </c>
       <c r="F93" t="str">
-        <v>Arsenic</v>
+        <v>Heptacosafluorotetradecanoic acid</v>
       </c>
       <c r="G93" t="str">
-        <v>7440-38-2</v>
+        <v>376-06-7</v>
       </c>
       <c r="H93" t="str">
-        <v>231-148-6</v>
+        <v>206-803-4</v>
       </c>
       <c r="I93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L93" t="str">
         <v>null</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
       </c>
       <c r="B94" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4790,22 +4790,22 @@
         <v>null</v>
       </c>
       <c r="F94" t="str">
-        <v>Heptacosafluorotetradecanoic acid</v>
+        <v>Cumene</v>
       </c>
       <c r="G94" t="str">
-        <v>376-06-7</v>
+        <v>98-82-8</v>
       </c>
       <c r="H94" t="str">
-        <v>206-803-4</v>
+        <v>202-704-5</v>
       </c>
       <c r="I94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L94" t="str">
         <v>null</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
       </c>
       <c r="B95" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4837,22 +4837,22 @@
         <v>null</v>
       </c>
       <c r="F95" t="str">
-        <v>Cumene</v>
+        <v>1,4-dioxane</v>
       </c>
       <c r="G95" t="str">
-        <v>98-82-8</v>
+        <v>123-91-1</v>
       </c>
       <c r="H95" t="str">
-        <v>202-704-5</v>
+        <v>204-661-8</v>
       </c>
       <c r="I95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L95" t="str">
         <v>null</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
       </c>
       <c r="B96" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4884,22 +4884,22 @@
         <v>null</v>
       </c>
       <c r="F96" t="str">
-        <v>1,4-dioxane</v>
+        <v>1,2,3,7,8-Pentachlorodibenzofuran</v>
       </c>
       <c r="G96" t="str">
-        <v>123-91-1</v>
+        <v>57117-41-6</v>
       </c>
       <c r="H96" t="str">
-        <v>204-661-8</v>
+        <v>694-762-7</v>
       </c>
       <c r="I96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L96" t="str">
         <v>null</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
       </c>
       <c r="B97" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4931,13 +4931,13 @@
         <v>null</v>
       </c>
       <c r="F97" t="str">
-        <v>1,2,3,7,8-Pentachlorodibenzofuran</v>
+        <v>Chlorpyrifos</v>
       </c>
       <c r="G97" t="str">
-        <v>57117-41-6</v>
+        <v>2921-88-2</v>
       </c>
       <c r="H97" t="str">
-        <v>694-762-7</v>
+        <v>220-864-4</v>
       </c>
       <c r="I97" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
       </c>
       <c r="B98" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4978,13 +4978,13 @@
         <v>null</v>
       </c>
       <c r="F98" t="str">
-        <v>Chlorpyrifos</v>
+        <v>3,4-dichloroaniline</v>
       </c>
       <c r="G98" t="str">
-        <v>2921-88-2</v>
+        <v>95-76-1</v>
       </c>
       <c r="H98" t="str">
-        <v>220-864-4</v>
+        <v>202-448-4</v>
       </c>
       <c r="I98" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
       </c>
       <c r="B99" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5025,22 +5025,22 @@
         <v>null</v>
       </c>
       <c r="F99" t="str">
-        <v>3,4-dichloroaniline</v>
+        <v>1-Methyl-2-pyrrolidone (NMP)</v>
       </c>
       <c r="G99" t="str">
-        <v>95-76-1</v>
+        <v>872-50-4</v>
       </c>
       <c r="H99" t="str">
-        <v>202-448-4</v>
+        <v>212-828-1</v>
       </c>
       <c r="I99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L99" t="str">
         <v>null</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B100" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5072,22 +5072,22 @@
         <v>null</v>
       </c>
       <c r="F100" t="str">
-        <v>1-Methyl-2-pyrrolidone (NMP)</v>
+        <v>Henicosafluoroundecanoic acid</v>
       </c>
       <c r="G100" t="str">
-        <v>872-50-4</v>
+        <v>2058-94-8</v>
       </c>
       <c r="H100" t="str">
-        <v>212-828-1</v>
+        <v>218-165-4</v>
       </c>
       <c r="I100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L100" t="str">
         <v>null</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
       </c>
       <c r="B101" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5119,22 +5119,22 @@
         <v>null</v>
       </c>
       <c r="F101" t="str">
-        <v>Henicosafluoroundecanoic acid</v>
+        <v>Bifenox</v>
       </c>
       <c r="G101" t="str">
-        <v>2058-94-8</v>
+        <v>42576-02-3</v>
       </c>
       <c r="H101" t="str">
-        <v>218-165-4</v>
+        <v>255-894-7</v>
       </c>
       <c r="I101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L101" t="str">
         <v>null</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
       </c>
       <c r="B102" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5166,13 +5166,13 @@
         <v>null</v>
       </c>
       <c r="F102" t="str">
-        <v>Bifenox</v>
+        <v>1,1,2-trichloroethane</v>
       </c>
       <c r="G102" t="str">
-        <v>42576-02-3</v>
+        <v>79-00-5</v>
       </c>
       <c r="H102" t="str">
-        <v>255-894-7</v>
+        <v>201-166-9</v>
       </c>
       <c r="I102" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
       </c>
       <c r="B103" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5213,13 +5213,13 @@
         <v>null</v>
       </c>
       <c r="F103" t="str">
-        <v>1,1,2-trichloroethane</v>
+        <v>Naphthalene</v>
       </c>
       <c r="G103" t="str">
-        <v>79-00-5</v>
+        <v>91-20-3</v>
       </c>
       <c r="H103" t="str">
-        <v>201-166-9</v>
+        <v>202-049-5</v>
       </c>
       <c r="I103" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
       </c>
       <c r="B104" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5260,22 +5260,22 @@
         <v>null</v>
       </c>
       <c r="F104" t="str">
-        <v>Naphthalene</v>
+        <v>carbon monoxide</v>
       </c>
       <c r="G104" t="str">
-        <v>91-20-3</v>
+        <v>630-08-0</v>
       </c>
       <c r="H104" t="str">
-        <v>202-049-5</v>
+        <v>211-128-3</v>
       </c>
       <c r="I104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L104" t="str">
         <v>null</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
       </c>
       <c r="B105" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5307,13 +5307,13 @@
         <v>null</v>
       </c>
       <c r="F105" t="str">
-        <v>carbon monoxide</v>
+        <v>Benzene</v>
       </c>
       <c r="G105" t="str">
-        <v>630-08-0</v>
+        <v>71-43-2</v>
       </c>
       <c r="H105" t="str">
-        <v>211-128-3</v>
+        <v>200-753-7</v>
       </c>
       <c r="I105" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
       </c>
       <c r="B106" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5354,22 +5354,22 @@
         <v>null</v>
       </c>
       <c r="F106" t="str">
-        <v>Benzene</v>
+        <v>1,1,1-trichloroethane</v>
       </c>
       <c r="G106" t="str">
-        <v>71-43-2</v>
+        <v>71-55-6</v>
       </c>
       <c r="H106" t="str">
-        <v>200-753-7</v>
+        <v>200-756-3</v>
       </c>
       <c r="I106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L106" t="str">
         <v>null</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B107" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5401,22 +5401,22 @@
         <v>null</v>
       </c>
       <c r="F107" t="str">
-        <v>1,1,1-trichloroethane</v>
+        <v>Perfluorononan-1-oic-acid</v>
       </c>
       <c r="G107" t="str">
-        <v>71-55-6</v>
+        <v>375-95-1</v>
       </c>
       <c r="H107" t="str">
-        <v>200-756-3</v>
+        <v>206-801-3</v>
       </c>
       <c r="I107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L107" t="str">
         <v>null</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B108" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5448,13 +5448,13 @@
         <v>null</v>
       </c>
       <c r="F108" t="str">
-        <v>Perfluorononan-1-oic-acid</v>
+        <v>Dimethyl sulphate</v>
       </c>
       <c r="G108" t="str">
-        <v>375-95-1</v>
+        <v>77-78-1</v>
       </c>
       <c r="H108" t="str">
-        <v>206-801-3</v>
+        <v>201-058-1</v>
       </c>
       <c r="I108" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
       </c>
       <c r="B109" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5495,22 +5495,22 @@
         <v>null</v>
       </c>
       <c r="F109" t="str">
-        <v>Dimethyl sulphate</v>
+        <v>1,2,3,4,7,8,9-Heptachlorodibenzofuran</v>
       </c>
       <c r="G109" t="str">
-        <v>77-78-1</v>
+        <v>55673-89-7</v>
       </c>
       <c r="H109" t="str">
-        <v>201-058-1</v>
+        <v>694-836-9</v>
       </c>
       <c r="I109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L109" t="str">
         <v>null</v>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VFDRCEOKCOUICI-UHFFFAOYSA-N</v>
       </c>
       <c r="B110" t="str">
         <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C110" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D110" t="str">
         <v>null</v>
@@ -5542,13 +5542,13 @@
         <v>null</v>
       </c>
       <c r="F110" t="str">
-        <v>1,2,3,4,7,8,9-Heptachlorodibenzofuran</v>
+        <v>2,2,3-trifluoro-3-[1,1,2,2,3,3-hexafluoro-3-(trifluoromethoxy)propoxy]propanoic acid</v>
       </c>
       <c r="G110" t="str">
-        <v>55673-89-7</v>
+        <v>919005-14-4</v>
       </c>
       <c r="H110" t="str">
-        <v>694-836-9</v>
+        <v>700-835-7</v>
       </c>
       <c r="I110" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -7484,13 +7484,13 @@
         <v>null</v>
       </c>
       <c r="K151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="L151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="M151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="N151" t="str">
         <v>null</v>
